--- a/biology/Zoologie/Berger_de_Bohême/Berger_de_Bohême.xlsx
+++ b/biology/Zoologie/Berger_de_Bohême/Berger_de_Bohême.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berger_de_Boh%C3%AAme</t>
+          <t>Berger_de_Bohême</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Berger de la Bohême, connu sous le nom de Chodsky pes en République tchèque (pays d'origine), est un chien de taille moyenne (poids entre 20 et 25 kg), un peu plus long que haut (hauteur au garrot : 52 à 55 cm pour les mâles et 49 à 52 cm pour les femelles). Le pelage, noir avec des pattes fauves, est double et long. Les oreilles sont petites et dressées, le corps compact et bien proportionné.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berger_de_Boh%C3%AAme</t>
+          <t>Berger_de_Bohême</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un chien de travail élégant et harmonieux qui a beaucoup de tempérament, sans être téméraire : il est attentif et facile à éduquer. Un peu méfiant avec les étrangers, il est dévoué à sa famille et aime les enfants. Il a un excellent odorat et est un bon gardien.
 Sa démarche naturelle est un trot bas, au rythme régulier et dégagé, avec un mouvement léger, élastique et des foulées allongées ; la ligne du dos est stable.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berger_de_Boh%C3%AAme</t>
+          <t>Berger_de_Bohême</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Comportement et caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Berger de Bohème est à la fois un chien de travail courageux et vigilant mais aussi un chien de compagnie. Il peut être aussi, un parfais chien de garde grâce à son instinct de protecteur. Il est très attaché à son maître et à sa famille. Le Berger de Bohème ne supporte pas beaucoup la sollitude, il faut éviter de le laisser seul trop souvent.
 Il apprécie la présence d’enfants et d'autre animaux de compagnie avec lesquels il peut jouer. Il peut cependant, être méfiant avec les étrangers.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Berger_de_Boh%C3%AAme</t>
+          <t>Berger_de_Bohême</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Berger de Bohème est un chien rustique. Sa robe double et dense le protège efficacement du froid, de l'humidité et de la chaleur. Cependant, le Berger de Bohème est prédisposée à certains problèmes de santé telle que : la dysplasie de la hanche et du coude, la dilatation-torsion de l’estomac. Les problèmes oculaires et auriculaires sont aussi fréquent chez cette race.
 </t>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Berger_de_Boh%C3%AAme</t>
+          <t>Berger_de_Bohême</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Entretien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Berger de Bohême à un long pelage avec des sous poils c'est pour cela qu'il est important de le brosser le plus souvent possible. Brosser une fois par semaine est déjà suffisant, cependant, le mieux serait de le faire au quotidien. Sans un brossage régulier, des boules de poils peuvent se créer. Le bain n'est pas vraiment nécessaire sauf s'il est vraiment sale. Tout shampoing utilisé devra être conçu exprès pour les chiens, et non pour les humains. La peau du chien à un ph différent de celui de l'Homme.
 </t>
